--- a/biology/Zoologie/Euscorpiidae/Euscorpiidae.xlsx
+++ b/biology/Zoologie/Euscorpiidae/Euscorpiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Euscorpiidae sont une famille de scorpions.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Europe, en Afrique du Nord, en Asie et en Amérique[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Europe, en Afrique du Nord, en Asie et en Amérique,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (22/12/2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (22/12/2020) :
 Alpiscorpius Gantenbein, Fet, Largiadèr &amp; Scholl, 1999
 Eoeuscorpius Kühl, Lourenço, 1876
 Euscorpius Thorell, 1876
@@ -556,7 +572,7 @@
 			Euscorpius flavicaudis
 			Plesiochactas vasquezi
 			Scorpiops ingens
-Selon World Spider Catalog (version 20.5, 2020)[3] :
+Selon World Spider Catalog (version 20.5, 2020) :
 † Eoeuscorpius Kühl &amp; Lourenco, 2017</t>
         </is>
       </c>
@@ -585,9 +601,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Soleglad et Fet en 2003 répartissaient les genres en trois sous-familles les Euscorpiinae avec Euscorpius, les Megacorminae avec Megacormus, Plesiochactas et Chactopsis et les Scorpiopinae avec Alloscorpiop, Dasyscorpiops, Euscorpiops, Neoscorpiops, Parascorpiops, Scorpiops et Troglocormus[4]. Le genre Chactopsis Kraepelin, 1912 est placé dans cette famille par Soleglad &amp; Sissom, 2001[5] mais dans les Chactidae par Lourenço, 2003[6]. Les Scorpiopinae ont été élevées au rang de famille.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soleglad et Fet en 2003 répartissaient les genres en trois sous-familles les Euscorpiinae avec Euscorpius, les Megacorminae avec Megacormus, Plesiochactas et Chactopsis et les Scorpiopinae avec Alloscorpiop, Dasyscorpiops, Euscorpiops, Neoscorpiops, Parascorpiops, Scorpiops et Troglocormus. Le genre Chactopsis Kraepelin, 1912 est placé dans cette famille par Soleglad &amp; Sissom, 2001 mais dans les Chactidae par Lourenço, 2003. Les Scorpiopinae ont été élevées au rang de famille.
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Laurie, 1896 : « Further notes on the anatomy and developpment of scorpions and their bearing on the classification of the order. » Annals and Magazine of Natural History, sér. 6, vol. 18, p. 121–133 (texte intégral).</t>
         </is>
